--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Vendedor</t>
   </si>
@@ -52,214 +52,238 @@
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Diego Oliveira Silva</t>
-  </si>
-  <si>
-    <t>08/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 629,70</t>
+    <t>Marcos Onofre Ferreira</t>
+  </si>
+  <si>
+    <t>22/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 280,00</t>
+  </si>
+  <si>
+    <t>Convertido</t>
+  </si>
+  <si>
+    <t>Ana Maria Montanher Viana</t>
+  </si>
+  <si>
+    <t>Maria Vilma De Lima</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.879,00</t>
+  </si>
+  <si>
+    <t>Aparecido Nunes Vassalo</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
   </si>
   <si>
     <t>Pendente</t>
   </si>
   <si>
-    <t>Denilson Gervasio</t>
-  </si>
-  <si>
-    <t>01/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.972,26</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Vamberto Ribeiro Dos Santos</t>
-  </si>
-  <si>
-    <t>03/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.159,10</t>
-  </si>
-  <si>
-    <t>Nilmara Silva Santos</t>
-  </si>
-  <si>
-    <t>07/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 375,00</t>
-  </si>
-  <si>
-    <t>Hannah Macedo Silva Pontes</t>
+    <t>Amanda Vitalino De Oliveira Buoro</t>
+  </si>
+  <si>
+    <t>R$ 900,00</t>
+  </si>
+  <si>
+    <t>Veronica Coelho Pereira</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.700,00</t>
+  </si>
+  <si>
+    <t>Bernadete Bernadina Da Silva</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.400,00</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Karlene Oliveira De Luca</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 2.000,00</t>
+  </si>
+  <si>
+    <t>Edilma Batista De Araujo</t>
+  </si>
+  <si>
+    <t>R$ 580,00</t>
+  </si>
+  <si>
+    <t>Benedita Joventina Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.500,00</t>
+  </si>
+  <si>
+    <t>Stephanie Gabriele Da Silva Almeida</t>
+  </si>
+  <si>
+    <t>Ótica Prestigio</t>
+  </si>
+  <si>
+    <t>Maria Do Carmo Marcal Rosa</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 320,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Luciene Maria De Lima Silva</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
   </si>
   <si>
     <t>R$ 800,00</t>
   </si>
   <si>
-    <t>Ricardo Ramos De Andrade</t>
+    <t>Diuza Gomes Santiago Silva</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 740,00</t>
+  </si>
+  <si>
+    <t>Marilene Odlevac Costa Machado</t>
   </si>
   <si>
     <t>09/09/2024</t>
   </si>
   <si>
-    <t>R$ 250,00</t>
-  </si>
-  <si>
-    <t>Jadi Cristina Redouco</t>
-  </si>
-  <si>
-    <t>05/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.100,00</t>
-  </si>
-  <si>
-    <t>Ana Maria Montanher Viana</t>
-  </si>
-  <si>
-    <t>Jose Bispo Goncalves De Menezes</t>
-  </si>
-  <si>
-    <t>24/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Cintia Martins Pinheiro</t>
-  </si>
-  <si>
-    <t>31/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 591,50</t>
-  </si>
-  <si>
-    <t>Maria Do Carmo Dantas Varjao Vicente</t>
-  </si>
-  <si>
-    <t>06/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 900,00</t>
-  </si>
-  <si>
-    <t>Jose Mario De Carvalho</t>
-  </si>
-  <si>
-    <t>R$ 1.690,00</t>
-  </si>
-  <si>
-    <t>Igor Lima Rodrigues</t>
-  </si>
-  <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 690,00</t>
-  </si>
-  <si>
-    <t>Eliana Aparecida Medina</t>
-  </si>
-  <si>
-    <t>12/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.800,00</t>
-  </si>
-  <si>
-    <t>Tatiana Cristina Elias Job</t>
-  </si>
-  <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 400,00</t>
-  </si>
-  <si>
-    <t>Geni Aparecida De Lima Elias</t>
-  </si>
-  <si>
-    <t>R$ 775,00</t>
-  </si>
-  <si>
-    <t>Airton Garcia Da Silva</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 284,41</t>
-  </si>
-  <si>
-    <t>Sibely Maria Siqueira Fernandes</t>
-  </si>
-  <si>
-    <t>Adalberto Da Silva Alves</t>
-  </si>
-  <si>
-    <t>R$ 1.800,00</t>
-  </si>
-  <si>
-    <t>Benedito Giacometo</t>
-  </si>
-  <si>
-    <t>30/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.200,00</t>
-  </si>
-  <si>
-    <t>Lucerlene Oliveira Boaventura De Almeida</t>
-  </si>
-  <si>
-    <t>R$ 3.400,00</t>
-  </si>
-  <si>
-    <t>Antonio Batista Leite</t>
-  </si>
-  <si>
-    <t>29/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.455,80</t>
-  </si>
-  <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
-  </si>
-  <si>
-    <t>Ricardo Zampieri</t>
-  </si>
-  <si>
-    <t>05/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.556,60</t>
-  </si>
-  <si>
-    <t>Maria Jose Barbosa Euclides</t>
-  </si>
-  <si>
-    <t>26/08/2024</t>
-  </si>
-  <si>
-    <t>Agapito Jose De Santana</t>
-  </si>
-  <si>
-    <t>R$ 2.618,91</t>
-  </si>
-  <si>
-    <t>Maria Do Socorro Pereira</t>
-  </si>
-  <si>
-    <t>R$ 570,00</t>
-  </si>
-  <si>
-    <t>Jose Fabio Dos Santos</t>
+    <t>R$ 3.300,00</t>
+  </si>
+  <si>
+    <t>Anderson Da Silva Romao</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.444,00</t>
+  </si>
+  <si>
+    <t>Margarida Silverio Canato</t>
+  </si>
+  <si>
+    <t>R$ 780,00</t>
+  </si>
+  <si>
+    <t>Manoel Messias Barbosa De Carvalho</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 2.390,00</t>
+  </si>
+  <si>
+    <t>Jose Alves Do Nascimento</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
+  </si>
+  <si>
+    <t>Marian Tereza De Lima</t>
+  </si>
+  <si>
+    <t>R$ 1.300,00</t>
+  </si>
+  <si>
+    <t>Antonio Sergio De Azevedo</t>
+  </si>
+  <si>
+    <t>R$ 1.050,00</t>
+  </si>
+  <si>
+    <t>Olinda Messias</t>
+  </si>
+  <si>
+    <t>21/09/2024</t>
+  </si>
+  <si>
+    <t>Francisca Honorio De Souza</t>
+  </si>
+  <si>
+    <t>Ismael Cunha Ferreira</t>
+  </si>
+  <si>
+    <t>Angela Maria Tome</t>
+  </si>
+  <si>
+    <t>28/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 750,00</t>
+  </si>
+  <si>
+    <t>Jessica Da Silva Soares</t>
+  </si>
+  <si>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Aparecida De Fatima Alves</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>Ivanilda Dos Santos Silva</t>
+  </si>
+  <si>
+    <t>R$ 500,00</t>
+  </si>
+  <si>
+    <t>Manoel Campos</t>
+  </si>
+  <si>
+    <t>R$ 1.085,00</t>
+  </si>
+  <si>
+    <t>Davi Braz Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 1.230,00</t>
+  </si>
+  <si>
+    <t>Quiteria De Araujo Alves Da Silva</t>
+  </si>
+  <si>
+    <t>R$ 700,00</t>
   </si>
 </sst>
 </file>
@@ -313,12 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -620,10 +641,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>43985</v>
+        <v>44587</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -667,149 +688,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>44153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>44197</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>44276</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>44289</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>44324</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>44202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -824,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,208 +740,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>43977</v>
+        <v>44861</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>44120</v>
+        <v>44943</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>44230</v>
+        <v>44948</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>44239</v>
+        <v>44633</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>44342</v>
+        <v>44646</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>44361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>44421</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>44414</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>44296</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1160,10 +951,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1193,94 +984,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>43972</v>
+        <v>44903</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>44097</v>
+        <v>44936</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>44093</v>
+        <v>44651</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>44078</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1063,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1324,6 +1092,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>44788</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1371,22 +1162,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>44215</v>
+        <v>44731</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1394,94 +1185,140 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>44059</v>
+        <v>44818</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>44046</v>
+        <v>44842</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>44331</v>
+        <v>44595</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>44430</v>
+        <v>44602</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>44613</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>44697</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1333,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1525,6 +1362,167 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>44814</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>44942</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>44564</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>44594</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>44637</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>44666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>44704</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1537,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -1547,13 +1545,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.284" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1577,6 +1575,121 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>44655</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>44798</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>44887</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>44889</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>44715</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
+    <sheet name="Sibely Fernandes" sheetId="2" r:id="rId5"/>
+    <sheet name="Suzana Baldenebro" sheetId="3" r:id="rId6"/>
+    <sheet name="Terezinha França" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Vendedor</t>
   </si>
@@ -44,73 +47,61 @@
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Maria Vilma De Lima</t>
-  </si>
-  <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.879,00</t>
-  </si>
-  <si>
-    <t>Convertido</t>
-  </si>
-  <si>
-    <t>Aparecido Nunes Vassalo</t>
-  </si>
-  <si>
-    <t>16/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Amanda Vitalino De Oliveira Buoro</t>
-  </si>
-  <si>
-    <t>R$ 900,00</t>
-  </si>
-  <si>
-    <t>Maria Do Socorro Silva</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 830,00</t>
-  </si>
-  <si>
-    <t>Veronica Coelho Pereira</t>
-  </si>
-  <si>
-    <t>26/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.700,00</t>
-  </si>
-  <si>
-    <t>Bernadete Bernadina Da Silva</t>
-  </si>
-  <si>
-    <t>27/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.400,00</t>
+    <t>Maria Aparecida Alemos</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.300,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>Total Convertido:</t>
+  </si>
+  <si>
     <t>R$ 0,00</t>
   </si>
   <si>
-    <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 7.709,00</t>
-  </si>
-  <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Sibely Maria Siqueira Fernandes</t>
+  </si>
+  <si>
+    <t>Joao Marques Dorateu</t>
+  </si>
+  <si>
+    <t>R$ 2.400,00</t>
+  </si>
+  <si>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
+  </si>
+  <si>
+    <t>Carlos Grund</t>
+  </si>
+  <si>
+    <t>R$ 2.900,00</t>
+  </si>
+  <si>
+    <t>Terezinha De Jesus Jordão De França</t>
+  </si>
+  <si>
+    <t>Ótica Daily</t>
+  </si>
+  <si>
+    <t>Maria Julia Duarte Rodrigues</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 3.800,00</t>
   </si>
 </sst>
 </file>
@@ -471,10 +462,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,10 +473,10 @@
     <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="29.279" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -516,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>44861</v>
+        <v>45074</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -535,147 +526,384 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44943</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44948</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45068</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45016</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44633</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Ana Viana" sheetId="1" r:id="rId4"/>
     <sheet name="Sibely Fernandes" sheetId="2" r:id="rId5"/>
-    <sheet name="Suzana Baldenebro" sheetId="3" r:id="rId6"/>
-    <sheet name="Terezinha França" sheetId="4" r:id="rId7"/>
+    <sheet name="Sttefani Cerqueira" sheetId="3" r:id="rId6"/>
+    <sheet name="Suzana Baldenebro" sheetId="4" r:id="rId7"/>
+    <sheet name="Terezinha França" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Vendedor</t>
   </si>
@@ -59,9 +60,21 @@
     <t>Pendente</t>
   </si>
   <si>
+    <t>Leda Maria Paulino Silva</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 860,00</t>
+  </si>
+  <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>R$ 2.160,00</t>
+  </si>
+  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
@@ -80,6 +93,27 @@
     <t>R$ 2.400,00</t>
   </si>
   <si>
+    <t>Maria Cicera Silva De Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 2.300,00</t>
+  </si>
+  <si>
+    <t>R$ 4.700,00</t>
+  </si>
+  <si>
+    <t>Sttefani Yohana Silva Cerqueira</t>
+  </si>
+  <si>
+    <t>Rubens De Sales Da Silva</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 2.333,52</t>
+  </si>
+  <si>
     <t>Suzana Jodar Alfaro Baldenebro</t>
   </si>
   <si>
@@ -87,6 +121,21 @@
   </si>
   <si>
     <t>R$ 2.900,00</t>
+  </si>
+  <si>
+    <t>Valmir Tolentino Magalhaes</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Maria De Fatima Azevedo Nascimento</t>
+  </si>
+  <si>
+    <t>R$ 525,00</t>
+  </si>
+  <si>
+    <t>R$ 4.425,00</t>
   </si>
   <si>
     <t>Terezinha De Jesus Jordão De França</t>
@@ -462,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G5"/>
+      <selection activeCell="A1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,7 +522,7 @@
     <col min="1" max="1" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
@@ -526,16 +575,26 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -545,10 +604,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -558,10 +617,23 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -576,10 +648,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G5"/>
+      <selection activeCell="A1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,7 +659,7 @@
     <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="38.705" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
@@ -618,7 +690,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>45079</v>
@@ -627,29 +699,39 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -659,10 +741,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -672,10 +754,23 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +793,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
@@ -732,22 +827,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
-        <v>45091</v>
+        <v>45130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -760,10 +855,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -773,10 +868,144 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.568" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,7 +1018,33 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -846,22 +1101,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>45068</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -874,10 +1129,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -887,10 +1142,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -900,10 +1155,10 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Vendedor</t>
   </si>
@@ -74,7 +74,7 @@
     <t>R$ 1.085,00</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>PÓS</t>
   </si>
   <si>
     <t>Davi Braz Da Silva</t>
@@ -110,19 +110,16 @@
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 2.585,00</t>
+    <t>R$ 0,00</t>
   </si>
   <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 4.040,00</t>
+    <t>R$ 6.625,00</t>
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>R$ 6.625,00</t>
   </si>
 </sst>
 </file>
@@ -612,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -635,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -710,7 +707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Terezinha França" sheetId="1" r:id="rId4"/>
+    <sheet name="Alan Mello" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Vendedor</t>
   </si>
@@ -38,75 +38,24 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Terezinha De Jesus Jordão De França</t>
-  </si>
-  <si>
-    <t>Ótica Daily</t>
-  </si>
-  <si>
-    <t>Aparecida De Fatima Alves</t>
-  </si>
-  <si>
-    <t>29/08/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.400,00</t>
+    <t>Alan De Mello</t>
+  </si>
+  <si>
+    <t>Ótica Matriz</t>
+  </si>
+  <si>
+    <t>Marcos Onofre Ferreira</t>
+  </si>
+  <si>
+    <t>22/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 280,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Ivanilda Dos Santos Silva</t>
-  </si>
-  <si>
-    <t>05/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 500,00</t>
-  </si>
-  <si>
-    <t>Manoel Campos</t>
-  </si>
-  <si>
-    <t>12/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.085,00</t>
-  </si>
-  <si>
-    <t>PÓS</t>
-  </si>
-  <si>
-    <t>Davi Braz Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.230,00</t>
-  </si>
-  <si>
-    <t>Antonietta Krohn</t>
-  </si>
-  <si>
-    <t>18/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 210,00</t>
-  </si>
-  <si>
-    <t>Felicio Ferreira Da Silva</t>
-  </si>
-  <si>
-    <t>R$ 1.500,00</t>
-  </si>
-  <si>
-    <t>Quiteria De Araujo Alves Da Silva</t>
-  </si>
-  <si>
-    <t>30/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 700,00</t>
-  </si>
-  <si>
     <t>Total Pendente:</t>
   </si>
   <si>
@@ -114,9 +63,6 @@
   </si>
   <si>
     <t>Total Convertido:</t>
-  </si>
-  <si>
-    <t>R$ 6.625,00</t>
   </si>
   <si>
     <t>Total:</t>
@@ -480,18 +426,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.275" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="29.279" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
@@ -525,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>44655</v>
+        <v>44587</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -544,170 +490,32 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44798</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44887</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44889</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44979</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44976</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44715</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Alan Mello" sheetId="1" r:id="rId4"/>
+    <sheet name="Suzana Baldenebro" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>Campanha 64</t>
+  </si>
+  <si>
+    <t>PERÍODO:</t>
+  </si>
+  <si>
+    <t>21/09/2024 - 20/10/2024</t>
+  </si>
+  <si>
+    <t>PAGAMENTO:</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PÓS:</t>
+  </si>
+  <si>
+    <t>30/11/-0001</t>
+  </si>
   <si>
     <t>Vendedor</t>
   </si>
@@ -38,34 +59,136 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Alan De Mello</t>
+    <t>Suzana Jodar Alfaro Baldenebro</t>
   </si>
   <si>
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Marcos Onofre Ferreira</t>
-  </si>
-  <si>
-    <t>22/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 280,00</t>
+    <t>Carlos Grund</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 2.900,00</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
+    <t>Valmir Tolentino Magalhaes</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.000,00</t>
+  </si>
+  <si>
+    <t>Maria De Fatima Azevedo Nascimento</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 525,00</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>Maria Rosemary De Almeida Lima</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 5.500,00</t>
+  </si>
+  <si>
+    <t>Jessica De Araujo</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 580,00</t>
+  </si>
+  <si>
+    <t>Ana Felix Leandro</t>
+  </si>
+  <si>
+    <t>R$ 2.600,00</t>
+  </si>
+  <si>
+    <t>Luciene De Fatima Souza</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
+    <t>Luzanira Macedo Modesto</t>
+  </si>
+  <si>
+    <t>R$ 900,00</t>
+  </si>
+  <si>
+    <t>Raissa Damasceno Vieira</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 340,00</t>
+  </si>
+  <si>
+    <t>Thais Monzano Goncalves Veroz</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.500,00</t>
+  </si>
+  <si>
+    <t>Mariana Miranda Martins</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>Joselita De Jesus Rodrigues</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>Renata Cind Bacelli Oliveira</t>
+  </si>
+  <si>
+    <t>R$ 1.400,00</t>
+  </si>
+  <si>
+    <t>Margarina Ferraresso Badain</t>
+  </si>
+  <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 0,00</t>
+    <t>R$ 5.325,00</t>
   </si>
   <si>
     <t>Total Convertido:</t>
   </si>
   <si>
+    <t>R$ 16.000,00</t>
+  </si>
+  <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>R$ 21.325,00</t>
   </si>
 </sst>
 </file>
@@ -73,9 +196,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -119,9 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -426,21 +561,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.568" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="43.418" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.282" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -470,52 +605,374 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>44587</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45091</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45127</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45231</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45268</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45252</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45373</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45417</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45436</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45447</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45455</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Suzana Baldenebro" sheetId="1" r:id="rId4"/>
+    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Campanha 64</t>
   </si>
@@ -59,136 +59,67 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Suzana Jodar Alfaro Baldenebro</t>
+    <t>Sttefani Yohana Silva Cerqueira</t>
   </si>
   <si>
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Carlos Grund</t>
-  </si>
-  <si>
-    <t>24/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.900,00</t>
+    <t>Rubens De Sales Da Silva</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 2.333,52</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Valmir Tolentino Magalhaes</t>
-  </si>
-  <si>
-    <t>25/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.000,00</t>
-  </si>
-  <si>
-    <t>Maria De Fatima Azevedo Nascimento</t>
-  </si>
-  <si>
-    <t>26/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 525,00</t>
+    <t>Angela Maria Barros Martins</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.350,00</t>
+  </si>
+  <si>
+    <t>Sandra Carvalho Teixeira</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 390,00</t>
+  </si>
+  <si>
+    <t>Romildo Francisco Da Silva</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.124,91</t>
   </si>
   <si>
     <t>Atrasado</t>
   </si>
   <si>
-    <t>Maria Rosemary De Almeida Lima</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 5.500,00</t>
-  </si>
-  <si>
-    <t>Jessica De Araujo</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 580,00</t>
-  </si>
-  <si>
-    <t>Ana Felix Leandro</t>
-  </si>
-  <si>
-    <t>R$ 2.600,00</t>
-  </si>
-  <si>
-    <t>Luciene De Fatima Souza</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>Luzanira Macedo Modesto</t>
-  </si>
-  <si>
-    <t>R$ 900,00</t>
-  </si>
-  <si>
-    <t>Raissa Damasceno Vieira</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 340,00</t>
-  </si>
-  <si>
-    <t>Thais Monzano Goncalves Veroz</t>
-  </si>
-  <si>
-    <t>11/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.500,00</t>
-  </si>
-  <si>
-    <t>Mariana Miranda Martins</t>
-  </si>
-  <si>
-    <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>Joselita De Jesus Rodrigues</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>Renata Cind Bacelli Oliveira</t>
-  </si>
-  <si>
-    <t>R$ 1.400,00</t>
-  </si>
-  <si>
-    <t>Margarina Ferraresso Badain</t>
-  </si>
-  <si>
     <t>Total Pendente:</t>
   </si>
   <si>
-    <t>R$ 5.325,00</t>
-  </si>
-  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 16.000,00</t>
+    <t>R$ 4.073,52</t>
   </si>
   <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>R$ 21.325,00</t>
+    <t>R$ 5.198,43</t>
   </si>
 </sst>
 </file>
@@ -561,18 +492,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F19" sqref="F19:G19"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="43.418" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -629,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>45091</v>
+        <v>45130</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -652,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>45104</v>
+        <v>45218</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -675,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>45127</v>
+        <v>45345</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -690,7 +621,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -698,281 +629,51 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45195</v>
+        <v>45438</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45142</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45231</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45268</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45373</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45417</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45436</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45447</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45455</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_vendedor.xlsx
+++ b/financeiro/resumo_campanha_vendedor.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sttefani Cerqueira" sheetId="1" r:id="rId4"/>
+    <sheet name="Alan Mello" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,21 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>Campanha 64</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>Campanha 62</t>
   </si>
   <si>
     <t>PERÍODO:</t>
   </si>
   <si>
-    <t>21/09/2024 - 20/10/2024</t>
+    <t>21/07/2024 - 20/08/2024</t>
   </si>
   <si>
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>06/11/2024</t>
+    <t>05/09/2024</t>
   </si>
   <si>
     <t>PAGAMENTO PÓS:</t>
@@ -59,67 +59,97 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sttefani Yohana Silva Cerqueira</t>
+    <t>Alan De Mello</t>
   </si>
   <si>
     <t>Ótica Matriz</t>
   </si>
   <si>
-    <t>Rubens De Sales Da Silva</t>
-  </si>
-  <si>
-    <t>26/09/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.333,52</t>
+    <t>Diego Oliveira Silva</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>R$ 629,70</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>Denilson Gervasio</t>
+  </si>
+  <si>
+    <t>01/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.972,26</t>
   </si>
   <si>
     <t>Convertido</t>
   </si>
   <si>
-    <t>Angela Maria Barros Martins</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.350,00</t>
-  </si>
-  <si>
-    <t>Sandra Carvalho Teixeira</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 390,00</t>
-  </si>
-  <si>
-    <t>Romildo Francisco Da Silva</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 1.124,91</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
+    <t>Vamberto Ribeiro Dos Santos</t>
+  </si>
+  <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.159,10</t>
+  </si>
+  <si>
+    <t>Nilmara Silva Santos</t>
+  </si>
+  <si>
+    <t>07/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 375,00</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Hannah Macedo Silva Pontes</t>
+  </si>
+  <si>
+    <t>R$ 800,00</t>
+  </si>
+  <si>
+    <t>Ricardo Ramos De Andrade</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>R$ 250,00</t>
+  </si>
+  <si>
+    <t>Jadi Cristina Redouco</t>
+  </si>
+  <si>
+    <t>05/10/2024</t>
+  </si>
+  <si>
+    <t>R$ 1.100,00</t>
   </si>
   <si>
     <t>Total Pendente:</t>
   </si>
   <si>
+    <t>R$ 1.004,70</t>
+  </si>
+  <si>
     <t>Total Convertido:</t>
   </si>
   <si>
-    <t>R$ 4.073,52</t>
+    <t>R$ 5.281,36</t>
   </si>
   <si>
     <t>Total:</t>
   </si>
   <si>
-    <t>R$ 5.198,43</t>
+    <t>R$ 6.286,06</t>
   </si>
 </sst>
 </file>
@@ -492,15 +522,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.421" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
@@ -560,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>45130</v>
+        <v>43985</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -583,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>45218</v>
+        <v>44153</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -598,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,22 +636,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>45345</v>
+        <v>44197</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,51 +659,120 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45438</v>
+        <v>44276</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44289</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44324</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
